--- a/datasets/Encuesta_UX_Simulada.xlsx
+++ b/datasets/Encuesta_UX_Simulada.xlsx
@@ -456,16 +456,16 @@
         <v>77</v>
       </c>
       <c r="C2">
-        <v>4.42</v>
+        <v>4.82</v>
       </c>
       <c r="D2">
-        <v>6.21</v>
+        <v>3.87</v>
       </c>
       <c r="E2">
-        <v>4.96</v>
+        <v>5.14</v>
       </c>
       <c r="F2">
-        <v>4.98</v>
+        <v>5.25</v>
       </c>
       <c r="G2">
         <v>5.79</v>
@@ -488,16 +488,16 @@
         <v>70.59999999999999</v>
       </c>
       <c r="C3">
-        <v>6.41</v>
+        <v>6.35</v>
       </c>
       <c r="D3">
-        <v>3.75</v>
+        <v>2.82</v>
       </c>
       <c r="E3">
-        <v>4.56</v>
+        <v>4.87</v>
       </c>
       <c r="F3">
-        <v>6.24</v>
+        <v>6.22</v>
       </c>
       <c r="G3">
         <v>5.81</v>
@@ -520,16 +520,16 @@
         <v>78.5</v>
       </c>
       <c r="C4">
-        <v>4.22</v>
+        <v>4.67</v>
       </c>
       <c r="D4">
-        <v>6.57</v>
+        <v>4.02</v>
       </c>
       <c r="E4">
-        <v>4.12</v>
+        <v>4.58</v>
       </c>
       <c r="F4">
-        <v>5.95</v>
+        <v>5.99</v>
       </c>
       <c r="G4">
         <v>4.44</v>
@@ -552,16 +552,16 @@
         <v>87.2</v>
       </c>
       <c r="C5">
-        <v>6.96</v>
+        <v>6.77</v>
       </c>
       <c r="D5">
-        <v>5.16</v>
+        <v>3.42</v>
       </c>
       <c r="E5">
-        <v>5.77</v>
+        <v>5.68</v>
       </c>
       <c r="F5">
-        <v>6.55</v>
+        <v>6.45</v>
       </c>
       <c r="G5">
         <v>4.17</v>
@@ -584,16 +584,16 @@
         <v>69.7</v>
       </c>
       <c r="C6">
-        <v>6.32</v>
+        <v>6.28</v>
       </c>
       <c r="D6">
-        <v>6.23</v>
+        <v>3.87</v>
       </c>
       <c r="E6">
-        <v>6.03</v>
+        <v>5.86</v>
       </c>
       <c r="F6">
-        <v>5.97</v>
+        <v>6.01</v>
       </c>
       <c r="G6">
         <v>6.24</v>
@@ -616,16 +616,16 @@
         <v>69.7</v>
       </c>
       <c r="C7">
-        <v>4.6</v>
+        <v>4.96</v>
       </c>
       <c r="D7">
-        <v>6.58</v>
+        <v>4.02</v>
       </c>
       <c r="E7">
-        <v>4.05</v>
+        <v>4.53</v>
       </c>
       <c r="F7">
-        <v>5.7</v>
+        <v>5.81</v>
       </c>
       <c r="G7">
         <v>6.24</v>
@@ -648,16 +648,16 @@
         <v>87.8</v>
       </c>
       <c r="C8">
-        <v>4.02</v>
+        <v>4.51</v>
       </c>
       <c r="D8">
-        <v>4.27</v>
+        <v>3.04</v>
       </c>
       <c r="E8">
-        <v>5.54</v>
+        <v>5.52</v>
       </c>
       <c r="F8">
-        <v>4.28</v>
+        <v>4.72</v>
       </c>
       <c r="G8">
         <v>6.47</v>
@@ -680,16 +680,16 @@
         <v>79.7</v>
       </c>
       <c r="C9">
-        <v>6.45</v>
+        <v>6.38</v>
       </c>
       <c r="D9">
-        <v>3.44</v>
+        <v>2.69</v>
       </c>
       <c r="E9">
-        <v>4.68</v>
+        <v>4.95</v>
       </c>
       <c r="F9">
-        <v>5.1</v>
+        <v>5.35</v>
       </c>
       <c r="G9">
         <v>6.65</v>
@@ -712,16 +712,16 @@
         <v>67.3</v>
       </c>
       <c r="C10">
-        <v>6.12</v>
+        <v>6.13</v>
       </c>
       <c r="D10">
-        <v>3.91</v>
+        <v>2.89</v>
       </c>
       <c r="E10">
-        <v>5.94</v>
+        <v>5.79</v>
       </c>
       <c r="F10">
-        <v>4.8</v>
+        <v>5.11</v>
       </c>
       <c r="G10">
         <v>5.05</v>
@@ -744,16 +744,16 @@
         <v>77.40000000000001</v>
       </c>
       <c r="C11">
-        <v>6.19</v>
+        <v>6.18</v>
       </c>
       <c r="D11">
-        <v>4.71</v>
+        <v>3.23</v>
       </c>
       <c r="E11">
-        <v>4.52</v>
+        <v>4.85</v>
       </c>
       <c r="F11">
-        <v>4.73</v>
+        <v>5.06</v>
       </c>
       <c r="G11">
         <v>5.01</v>
@@ -776,16 +776,16 @@
         <v>67.40000000000001</v>
       </c>
       <c r="C12">
-        <v>6.31</v>
+        <v>6.27</v>
       </c>
       <c r="D12">
-        <v>6.27</v>
+        <v>3.89</v>
       </c>
       <c r="E12">
-        <v>6.07</v>
+        <v>5.88</v>
       </c>
       <c r="F12">
-        <v>6.92</v>
+        <v>6.74</v>
       </c>
       <c r="G12">
         <v>6.19</v>
@@ -808,16 +808,16 @@
         <v>67.3</v>
       </c>
       <c r="C13">
-        <v>4.22</v>
+        <v>4.67</v>
       </c>
       <c r="D13">
-        <v>6.44</v>
+        <v>3.96</v>
       </c>
       <c r="E13">
-        <v>5.16</v>
+        <v>5.27</v>
       </c>
       <c r="F13">
-        <v>5.18</v>
+        <v>5.4</v>
       </c>
       <c r="G13">
         <v>5.6</v>
@@ -840,16 +840,16 @@
         <v>74.40000000000001</v>
       </c>
       <c r="C14">
-        <v>5.08</v>
+        <v>5.32</v>
       </c>
       <c r="D14">
-        <v>3.03</v>
+        <v>2.51</v>
       </c>
       <c r="E14">
-        <v>6.81</v>
+        <v>6.37</v>
       </c>
       <c r="F14">
-        <v>6.68</v>
+        <v>6.55</v>
       </c>
       <c r="G14">
         <v>5.81</v>
@@ -872,16 +872,16 @@
         <v>52.9</v>
       </c>
       <c r="C15">
-        <v>4.35</v>
+        <v>4.77</v>
       </c>
       <c r="D15">
-        <v>5.04</v>
+        <v>3.37</v>
       </c>
       <c r="E15">
-        <v>4.41</v>
+        <v>4.78</v>
       </c>
       <c r="F15">
-        <v>5.89</v>
+        <v>5.95</v>
       </c>
       <c r="G15">
         <v>6.18</v>
@@ -904,16 +904,16 @@
         <v>54.8</v>
       </c>
       <c r="C16">
-        <v>6.59</v>
+        <v>6.49</v>
       </c>
       <c r="D16">
-        <v>4.67</v>
+        <v>3.21</v>
       </c>
       <c r="E16">
-        <v>5.02</v>
+        <v>5.18</v>
       </c>
       <c r="F16">
-        <v>6.38</v>
+        <v>6.33</v>
       </c>
       <c r="G16">
         <v>6.56</v>
@@ -936,16 +936,16 @@
         <v>66.40000000000001</v>
       </c>
       <c r="C17">
-        <v>5.87</v>
+        <v>5.93</v>
       </c>
       <c r="D17">
-        <v>3.89</v>
+        <v>2.88</v>
       </c>
       <c r="E17">
-        <v>4.34</v>
+        <v>4.73</v>
       </c>
       <c r="F17">
-        <v>5.51</v>
+        <v>5.66</v>
       </c>
       <c r="G17">
         <v>4.35</v>
@@ -968,16 +968,16 @@
         <v>61.9</v>
       </c>
       <c r="C18">
-        <v>4.99</v>
+        <v>5.26</v>
       </c>
       <c r="D18">
-        <v>3.48</v>
+        <v>2.7</v>
       </c>
       <c r="E18">
-        <v>6.77</v>
+        <v>6.35</v>
       </c>
       <c r="F18">
-        <v>5.73</v>
+        <v>5.83</v>
       </c>
       <c r="G18">
         <v>4.5</v>
@@ -1000,16 +1000,16 @@
         <v>75.09999999999999</v>
       </c>
       <c r="C19">
-        <v>4.19</v>
+        <v>4.65</v>
       </c>
       <c r="D19">
-        <v>4.35</v>
+        <v>3.07</v>
       </c>
       <c r="E19">
-        <v>6.63</v>
+        <v>6.25</v>
       </c>
       <c r="F19">
-        <v>5.48</v>
+        <v>5.63</v>
       </c>
       <c r="G19">
         <v>3.38</v>
@@ -1032,16 +1032,16 @@
         <v>62.9</v>
       </c>
       <c r="C20">
-        <v>4.93</v>
+        <v>5.22</v>
       </c>
       <c r="D20">
-        <v>6.77</v>
+        <v>4.1</v>
       </c>
       <c r="E20">
-        <v>4.77</v>
+        <v>5.02</v>
       </c>
       <c r="F20">
-        <v>4.59</v>
+        <v>4.95</v>
       </c>
       <c r="G20">
         <v>5.31</v>
@@ -1064,16 +1064,16 @@
         <v>57.9</v>
       </c>
       <c r="C21">
-        <v>4.98</v>
+        <v>5.25</v>
       </c>
       <c r="D21">
-        <v>4.29</v>
+        <v>3.05</v>
       </c>
       <c r="E21">
-        <v>5.98</v>
+        <v>5.82</v>
       </c>
       <c r="F21">
-        <v>6.17</v>
+        <v>6.16</v>
       </c>
       <c r="G21">
         <v>3.14</v>
@@ -1096,16 +1096,16 @@
         <v>86.7</v>
       </c>
       <c r="C22">
-        <v>6.19</v>
+        <v>6.18</v>
       </c>
       <c r="D22">
-        <v>5.08</v>
+        <v>3.38</v>
       </c>
       <c r="E22">
-        <v>6.45</v>
+        <v>6.13</v>
       </c>
       <c r="F22">
-        <v>4.84</v>
+        <v>5.15</v>
       </c>
       <c r="G22">
         <v>4.86</v>
@@ -1128,16 +1128,16 @@
         <v>69.7</v>
       </c>
       <c r="C23">
-        <v>5.91</v>
+        <v>5.97</v>
       </c>
       <c r="D23">
-        <v>5.81</v>
+        <v>3.7</v>
       </c>
       <c r="E23">
-        <v>5.67</v>
+        <v>5.61</v>
       </c>
       <c r="F23">
-        <v>4.07</v>
+        <v>4.56</v>
       </c>
       <c r="G23">
         <v>5.17</v>
@@ -1160,16 +1160,16 @@
         <v>72.7</v>
       </c>
       <c r="C24">
-        <v>6.66</v>
+        <v>6.54</v>
       </c>
       <c r="D24">
-        <v>4.45</v>
+        <v>3.12</v>
       </c>
       <c r="E24">
-        <v>5.59</v>
+        <v>5.56</v>
       </c>
       <c r="F24">
-        <v>5.94</v>
+        <v>5.98</v>
       </c>
       <c r="G24">
         <v>4.15</v>
@@ -1192,16 +1192,16 @@
         <v>57.8</v>
       </c>
       <c r="C25">
-        <v>5.42</v>
+        <v>5.59</v>
       </c>
       <c r="D25">
-        <v>6.89</v>
+        <v>4.15</v>
       </c>
       <c r="E25">
-        <v>4.73</v>
+        <v>4.98</v>
       </c>
       <c r="F25">
-        <v>4.53</v>
+        <v>4.91</v>
       </c>
       <c r="G25">
         <v>5.36</v>
@@ -1224,16 +1224,16 @@
         <v>66.59999999999999</v>
       </c>
       <c r="C26">
-        <v>4.36</v>
+        <v>4.78</v>
       </c>
       <c r="D26">
-        <v>6.85</v>
+        <v>4.14</v>
       </c>
       <c r="E26">
-        <v>4.28</v>
+        <v>4.69</v>
       </c>
       <c r="F26">
-        <v>6.82</v>
+        <v>6.66</v>
       </c>
       <c r="G26">
         <v>3.12</v>
@@ -1259,13 +1259,13 @@
         <v>6.14</v>
       </c>
       <c r="D27">
-        <v>4.01</v>
+        <v>2.93</v>
       </c>
       <c r="E27">
+        <v>6.29</v>
+      </c>
+      <c r="F27">
         <v>6.69</v>
-      </c>
-      <c r="F27">
-        <v>6.86</v>
       </c>
       <c r="G27">
         <v>3.15</v>
@@ -1288,16 +1288,16 @@
         <v>60.5</v>
       </c>
       <c r="C28">
-        <v>6.28</v>
+        <v>6.25</v>
       </c>
       <c r="D28">
-        <v>4.99</v>
+        <v>3.35</v>
       </c>
       <c r="E28">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="F28">
-        <v>6.74</v>
+        <v>6.6</v>
       </c>
       <c r="G28">
         <v>6.29</v>
@@ -1320,16 +1320,16 @@
         <v>75.8</v>
       </c>
       <c r="C29">
-        <v>5.68</v>
+        <v>5.79</v>
       </c>
       <c r="D29">
-        <v>4.2</v>
+        <v>3.01</v>
       </c>
       <c r="E29">
-        <v>5.9</v>
+        <v>5.77</v>
       </c>
       <c r="F29">
-        <v>5.11</v>
+        <v>5.35</v>
       </c>
       <c r="G29">
         <v>4.44</v>
@@ -1352,16 +1352,16 @@
         <v>66</v>
       </c>
       <c r="C30">
-        <v>6.31</v>
+        <v>6.27</v>
       </c>
       <c r="D30">
-        <v>4.14</v>
+        <v>2.98</v>
       </c>
       <c r="E30">
-        <v>5.02</v>
+        <v>5.18</v>
       </c>
       <c r="F30">
-        <v>4.05</v>
+        <v>4.54</v>
       </c>
       <c r="G30">
         <v>3.51</v>
@@ -1384,16 +1384,16 @@
         <v>69.09999999999999</v>
       </c>
       <c r="C31">
-        <v>5.48</v>
+        <v>5.64</v>
       </c>
       <c r="D31">
-        <v>3.15</v>
+        <v>2.56</v>
       </c>
       <c r="E31">
-        <v>5.05</v>
+        <v>5.2</v>
       </c>
       <c r="F31">
-        <v>6.78</v>
+        <v>6.64</v>
       </c>
       <c r="G31">
         <v>5.09</v>
@@ -1416,16 +1416,16 @@
         <v>66</v>
       </c>
       <c r="C32">
-        <v>5.57</v>
+        <v>5.7</v>
       </c>
       <c r="D32">
-        <v>5.44</v>
+        <v>3.54</v>
       </c>
       <c r="E32">
-        <v>6.18</v>
+        <v>5.95</v>
       </c>
       <c r="F32">
-        <v>5.28</v>
+        <v>5.48</v>
       </c>
       <c r="G32">
         <v>6.08</v>
@@ -1448,16 +1448,16 @@
         <v>90.5</v>
       </c>
       <c r="C33">
-        <v>5.28</v>
+        <v>5.48</v>
       </c>
       <c r="D33">
-        <v>5.01</v>
+        <v>3.35</v>
       </c>
       <c r="E33">
-        <v>6.69</v>
+        <v>6.29</v>
       </c>
       <c r="F33">
-        <v>6.9</v>
+        <v>6.72</v>
       </c>
       <c r="G33">
         <v>3.86</v>
@@ -1480,16 +1480,16 @@
         <v>71.90000000000001</v>
       </c>
       <c r="C34">
-        <v>4.08</v>
+        <v>4.56</v>
       </c>
       <c r="D34">
-        <v>3.21</v>
+        <v>2.59</v>
       </c>
       <c r="E34">
-        <v>6.66</v>
+        <v>6.27</v>
       </c>
       <c r="F34">
-        <v>6.89</v>
+        <v>6.72</v>
       </c>
       <c r="G34">
         <v>5.49</v>
@@ -1512,16 +1512,16 @@
         <v>61.4</v>
       </c>
       <c r="C35">
-        <v>4.32</v>
+        <v>4.75</v>
       </c>
       <c r="D35">
-        <v>4.11</v>
+        <v>2.97</v>
       </c>
       <c r="E35">
-        <v>6.34</v>
+        <v>6.06</v>
       </c>
       <c r="F35">
-        <v>6.56</v>
+        <v>6.46</v>
       </c>
       <c r="G35">
         <v>3.34</v>
@@ -1544,16 +1544,16 @@
         <v>80.2</v>
       </c>
       <c r="C36">
-        <v>4.09</v>
+        <v>4.57</v>
       </c>
       <c r="D36">
-        <v>6.63</v>
+        <v>4.04</v>
       </c>
       <c r="E36">
-        <v>5.93</v>
+        <v>5.78</v>
       </c>
       <c r="F36">
-        <v>4.88</v>
+        <v>5.18</v>
       </c>
       <c r="G36">
         <v>3.21</v>
@@ -1576,16 +1576,16 @@
         <v>59.8</v>
       </c>
       <c r="C37">
-        <v>5.91</v>
+        <v>5.96</v>
       </c>
       <c r="D37">
-        <v>3.96</v>
+        <v>2.91</v>
       </c>
       <c r="E37">
-        <v>4.25</v>
+        <v>4.67</v>
       </c>
       <c r="F37">
-        <v>5.16</v>
+        <v>5.39</v>
       </c>
       <c r="G37">
         <v>5.13</v>
@@ -1608,16 +1608,16 @@
         <v>74.09999999999999</v>
       </c>
       <c r="C38">
-        <v>4.94</v>
+        <v>5.22</v>
       </c>
       <c r="D38">
-        <v>3.58</v>
+        <v>2.75</v>
       </c>
       <c r="E38">
-        <v>4.48</v>
+        <v>4.82</v>
       </c>
       <c r="F38">
-        <v>6.55</v>
+        <v>6.46</v>
       </c>
       <c r="G38">
         <v>5.16</v>
@@ -1640,16 +1640,16 @@
         <v>52.4</v>
       </c>
       <c r="C39">
-        <v>5.53</v>
+        <v>5.67</v>
       </c>
       <c r="D39">
-        <v>4.96</v>
+        <v>3.33</v>
       </c>
       <c r="E39">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="F39">
-        <v>4.95</v>
+        <v>5.23</v>
       </c>
       <c r="G39">
         <v>5.55</v>
@@ -1672,16 +1672,16 @@
         <v>58.7</v>
       </c>
       <c r="C40">
-        <v>6.72</v>
+        <v>6.59</v>
       </c>
       <c r="D40">
-        <v>6.94</v>
+        <v>4.18</v>
       </c>
       <c r="E40">
-        <v>5.82</v>
+        <v>5.71</v>
       </c>
       <c r="F40">
-        <v>4.51</v>
+        <v>4.89</v>
       </c>
       <c r="G40">
         <v>5.9</v>
@@ -1704,16 +1704,16 @@
         <v>74</v>
       </c>
       <c r="C41">
-        <v>4.75</v>
+        <v>5.07</v>
       </c>
       <c r="D41">
-        <v>3.97</v>
+        <v>2.91</v>
       </c>
       <c r="E41">
-        <v>4.03</v>
+        <v>4.52</v>
       </c>
       <c r="F41">
-        <v>5.67</v>
+        <v>5.78</v>
       </c>
       <c r="G41">
         <v>6.9</v>
@@ -1736,16 +1736,16 @@
         <v>79.40000000000001</v>
       </c>
       <c r="C42">
-        <v>5.23</v>
+        <v>5.44</v>
       </c>
       <c r="D42">
-        <v>5.69</v>
+        <v>3.64</v>
       </c>
       <c r="E42">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="F42">
-        <v>6.81</v>
+        <v>6.65</v>
       </c>
       <c r="G42">
         <v>5.07</v>
@@ -1768,16 +1768,16 @@
         <v>73.7</v>
       </c>
       <c r="C43">
-        <v>6.27</v>
+        <v>6.24</v>
       </c>
       <c r="D43">
-        <v>6.05</v>
+        <v>3.79</v>
       </c>
       <c r="E43">
-        <v>5.99</v>
+        <v>5.83</v>
       </c>
       <c r="F43">
-        <v>6.09</v>
+        <v>6.1</v>
       </c>
       <c r="G43">
         <v>4.29</v>
@@ -1800,16 +1800,16 @@
         <v>70.8</v>
       </c>
       <c r="C44">
-        <v>4.69</v>
+        <v>5.03</v>
       </c>
       <c r="D44">
-        <v>3.95</v>
+        <v>2.9</v>
       </c>
       <c r="E44">
-        <v>4.02</v>
+        <v>4.51</v>
       </c>
       <c r="F44">
-        <v>5.71</v>
+        <v>5.81</v>
       </c>
       <c r="G44">
         <v>6.18</v>
@@ -1832,16 +1832,16 @@
         <v>69</v>
       </c>
       <c r="C45">
-        <v>4.23</v>
+        <v>4.68</v>
       </c>
       <c r="D45">
-        <v>5.91</v>
+        <v>3.74</v>
       </c>
       <c r="E45">
-        <v>4.48</v>
+        <v>4.82</v>
       </c>
       <c r="F45">
-        <v>4.29</v>
+        <v>4.72</v>
       </c>
       <c r="G45">
         <v>4.08</v>
@@ -1864,16 +1864,16 @@
         <v>57.2</v>
       </c>
       <c r="C46">
-        <v>4.87</v>
+        <v>5.17</v>
       </c>
       <c r="D46">
-        <v>4.47</v>
+        <v>3.13</v>
       </c>
       <c r="E46">
-        <v>5.65</v>
+        <v>5.6</v>
       </c>
       <c r="F46">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="G46">
         <v>4.76</v>
@@ -1896,16 +1896,16 @@
         <v>64.8</v>
       </c>
       <c r="C47">
-        <v>4.48</v>
+        <v>4.87</v>
       </c>
       <c r="D47">
-        <v>5.53</v>
+        <v>3.57</v>
       </c>
       <c r="E47">
-        <v>6.08</v>
+        <v>5.88</v>
       </c>
       <c r="F47">
-        <v>6.97</v>
+        <v>6.78</v>
       </c>
       <c r="G47">
         <v>3.31</v>
@@ -1928,16 +1928,16 @@
         <v>67.40000000000001</v>
       </c>
       <c r="C48">
-        <v>6.79</v>
+        <v>6.64</v>
       </c>
       <c r="D48">
-        <v>5.53</v>
+        <v>3.58</v>
       </c>
       <c r="E48">
-        <v>5.96</v>
+        <v>5.8</v>
       </c>
       <c r="F48">
-        <v>4.42</v>
+        <v>4.82</v>
       </c>
       <c r="G48">
         <v>3.1</v>
@@ -1960,16 +1960,16 @@
         <v>82.59999999999999</v>
       </c>
       <c r="C49">
-        <v>6.42</v>
+        <v>6.36</v>
       </c>
       <c r="D49">
-        <v>5.14</v>
+        <v>3.41</v>
       </c>
       <c r="E49">
-        <v>4.67</v>
+        <v>4.95</v>
       </c>
       <c r="F49">
-        <v>5.55</v>
+        <v>5.69</v>
       </c>
       <c r="G49">
         <v>6.85</v>
@@ -1992,16 +1992,16 @@
         <v>75.40000000000001</v>
       </c>
       <c r="C50">
-        <v>5.9</v>
+        <v>5.96</v>
       </c>
       <c r="D50">
-        <v>3.36</v>
+        <v>2.65</v>
       </c>
       <c r="E50">
-        <v>6.14</v>
+        <v>5.92</v>
       </c>
       <c r="F50">
-        <v>6.63</v>
+        <v>6.52</v>
       </c>
       <c r="G50">
         <v>6.34</v>
@@ -2024,16 +2024,16 @@
         <v>54.4</v>
       </c>
       <c r="C51">
-        <v>6.61</v>
+        <v>6.5</v>
       </c>
       <c r="D51">
-        <v>6.34</v>
+        <v>3.92</v>
       </c>
       <c r="E51">
-        <v>4.71</v>
+        <v>4.97</v>
       </c>
       <c r="F51">
-        <v>6.22</v>
+        <v>6.2</v>
       </c>
       <c r="G51">
         <v>5.78</v>
